--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45036</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45167</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y527"/>
+  <dimension ref="A1:Y528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45036</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45167</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
       </c>
       <c r="R526" s="2" t="inlineStr"/>
     </row>
-    <row r="527">
+    <row r="527" ht="15" customHeight="1">
       <c r="A527" t="inlineStr">
         <is>
           <t>A 40537-2023</t>
@@ -32022,7 +32022,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32068,6 +32068,63 @@
         <v>0</v>
       </c>
       <c r="R527" s="2" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>A 41189-2023</t>
+        </is>
+      </c>
+      <c r="B528" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C528" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>HAGFORS</t>
+        </is>
+      </c>
+      <c r="G528" t="n">
+        <v>3</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N528" t="n">
+        <v>0</v>
+      </c>
+      <c r="O528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R528" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45036</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45167</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45036</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45167</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45036</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45167</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45036</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45167</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45036</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45167</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y528"/>
+  <dimension ref="A1:Y529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>45036</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45167</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30852,7 +30852,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31375,7 +31375,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
       </c>
       <c r="R527" s="2" t="inlineStr"/>
     </row>
-    <row r="528">
+    <row r="528" ht="15" customHeight="1">
       <c r="A528" t="inlineStr">
         <is>
           <t>A 41189-2023</t>
@@ -32079,7 +32079,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32125,6 +32125,68 @@
         <v>0</v>
       </c>
       <c r="R528" s="2" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>A 42735-2023</t>
+        </is>
+      </c>
+      <c r="B529" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C529" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>HAGFORS</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N529" t="n">
+        <v>0</v>
+      </c>
+      <c r="O529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R529" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,14 +667,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 46698-2021</t>
+          <t>A 39627-2023</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44445</v>
+        <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,25 +686,20 @@
           <t>HAGFORS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>8.300000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -716,15 +711,114 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Smal trollknäppare
+Dvärgbägarlav
+Kolflarnlav
+Kortskaftad ärgspik
+Vedskivlav
+Vedtrappmossa
+Dropptaggsvamp
+Korallblylav
+Skuggblåslav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 39627-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 39627-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 39627-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 39627-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 39627-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 39627-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 46698-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44445</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAGFORS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>8</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Kolflarnlav
@@ -736,92 +830,92 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 46698-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 46698-2021.png")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 46698-2021.docx")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 46698-2021.docx")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 46698-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 46698-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 17619-2023</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45036</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HAGFORS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HAGFORS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>5</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Kortskaftad ärgspik
@@ -830,119 +924,31 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 17619-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 17619-2023.png")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 17619-2023.docx")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 17619-2023.docx")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 17619-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 17619-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39627-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45167</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HAGFORS</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Smal trollknäppare
-Kolflarnlav
-Vedskivlav
-Vedtrappmossa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 39627-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 39627-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 39627-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 39627-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 39627-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 39627-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -953,7 +959,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,7 +1045,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1130,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1214,7 +1220,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1310,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1400,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1485,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1575,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1631,7 +1637,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1688,7 +1694,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1751,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,7 +1808,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1859,7 +1865,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1916,7 +1922,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1973,7 +1979,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2030,7 +2036,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2087,7 +2093,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2144,7 +2150,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2201,7 +2207,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2258,7 +2264,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2321,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2383,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2445,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2496,7 +2502,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2553,7 +2559,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2610,7 +2616,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2667,7 +2673,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2724,7 +2730,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2781,7 +2787,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2838,7 +2844,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2895,7 +2901,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2957,7 +2963,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3019,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3081,7 +3087,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3138,7 +3144,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3195,7 +3201,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3252,7 +3258,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3309,7 +3315,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3366,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3429,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3486,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3537,7 +3543,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3600,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3657,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3714,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3771,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3828,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3884,7 +3890,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3941,7 +3947,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3998,7 +4004,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4060,7 +4066,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4123,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4174,7 +4180,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4237,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4288,7 +4294,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4345,7 +4351,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4402,7 +4408,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4465,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4522,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4579,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4698,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4749,7 +4755,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4812,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4863,7 +4869,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4920,7 +4926,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4983,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5034,7 +5040,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5091,7 +5097,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5148,7 +5154,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5205,7 +5211,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5262,7 +5268,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5319,7 +5325,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5376,7 +5382,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5439,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5490,7 +5496,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5547,7 +5553,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5604,7 +5610,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5661,7 +5667,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5718,7 +5724,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5775,7 +5781,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5832,7 +5838,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5894,7 +5900,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5956,7 +5962,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6018,7 +6024,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6075,7 +6081,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6137,7 +6143,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6199,7 +6205,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6256,7 +6262,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6313,7 +6319,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6370,7 +6376,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6432,7 +6438,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6494,7 +6500,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6551,7 +6557,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6608,7 +6614,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6665,7 +6671,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6722,7 +6728,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6784,7 +6790,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6846,7 +6852,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6908,7 +6914,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6965,7 +6971,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7033,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7095,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7157,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7219,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7276,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7338,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7400,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7457,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7514,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7571,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7628,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7685,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7742,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7799,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7855,7 +7861,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7923,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7985,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8047,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8109,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,7 +8171,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8222,7 +8228,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,7 +8285,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8341,7 +8347,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8398,7 +8404,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8455,7 +8461,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8523,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,7 +8585,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8647,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8704,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8761,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8823,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8885,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8947,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +9004,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9055,7 +9061,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9112,7 +9118,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9180,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9231,7 +9237,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9299,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9350,7 +9356,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9413,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,7 +9475,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9531,7 +9537,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9588,7 +9594,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9651,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9708,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9765,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9821,7 +9827,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9883,7 +9889,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9945,7 +9951,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10013,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10075,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10137,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10188,7 +10194,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10256,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10369,7 +10375,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10426,7 +10432,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10489,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10540,7 +10546,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10603,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10659,7 +10665,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10727,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10783,7 +10789,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10846,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10903,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10959,7 +10965,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11021,7 +11027,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11089,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11146,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11203,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11265,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11321,7 +11327,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11389,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11451,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11513,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11575,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11632,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11694,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11751,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11808,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11865,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11927,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11984,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12040,7 +12046,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12103,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12159,7 +12165,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12221,7 +12227,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12283,7 +12289,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12345,7 +12351,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12402,7 +12408,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12459,7 +12465,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12516,7 +12522,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12573,7 +12579,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12635,7 +12641,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12697,7 +12703,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12754,7 +12760,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12811,7 +12817,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12873,7 +12879,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12941,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12998,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13055,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13112,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13169,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13231,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13282,7 +13288,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13339,7 +13345,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13396,7 +13402,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13453,7 +13459,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13510,7 +13516,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13567,7 +13573,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13624,7 +13630,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13686,7 +13692,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13743,7 +13749,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13800,7 +13806,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13862,7 +13868,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13919,7 +13925,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13976,7 +13982,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14033,7 +14039,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14090,7 +14096,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14147,7 +14153,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14204,7 +14210,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14261,7 +14267,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14318,7 +14324,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14375,7 +14381,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14432,7 +14438,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14489,7 +14495,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14551,7 +14557,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14613,7 +14619,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14675,7 +14681,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14737,7 +14743,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14799,7 +14805,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14861,7 +14867,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14923,7 +14929,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14980,7 +14986,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15048,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15105,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15162,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15218,7 +15224,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15280,7 +15286,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15337,7 +15343,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15394,7 +15400,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15451,7 +15457,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15508,7 +15514,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15565,7 +15571,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15622,7 +15628,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15679,7 +15685,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15736,7 +15742,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15793,7 +15799,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15856,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15907,7 +15913,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15969,7 +15975,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16026,7 +16032,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16083,7 +16089,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16151,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16208,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16265,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16322,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16379,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16436,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16493,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16549,7 +16555,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16612,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16674,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16736,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16793,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16849,7 +16855,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16911,7 +16917,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16968,7 +16974,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17030,7 +17036,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17098,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17154,7 +17160,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17211,7 +17217,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17273,7 +17279,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17335,7 +17341,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17397,7 +17403,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17459,7 +17465,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17516,7 +17522,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17573,7 +17579,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17635,7 +17641,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17703,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17759,7 +17765,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17816,7 +17822,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17878,7 +17884,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17935,7 +17941,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17992,7 +17998,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18049,7 +18055,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18106,7 +18112,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18168,7 +18174,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18230,7 +18236,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18287,7 +18293,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18344,7 +18350,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18412,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18468,7 +18474,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18530,7 +18536,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18592,7 +18598,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18654,7 +18660,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18711,7 +18717,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18773,7 +18779,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18830,7 +18836,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18887,7 +18893,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18944,7 +18950,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19001,7 +19007,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19058,7 +19064,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19120,7 +19126,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19182,7 +19188,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19244,7 +19250,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19306,7 +19312,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19368,7 +19374,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19430,7 +19436,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19487,7 +19493,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19544,7 +19550,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19601,7 +19607,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19658,7 +19664,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19715,7 +19721,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19772,7 +19778,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19834,7 +19840,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19891,7 +19897,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19948,7 +19954,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20005,7 +20011,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20062,7 +20068,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20119,7 +20125,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20176,7 +20182,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20233,7 +20239,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20290,7 +20296,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20347,7 +20353,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20409,7 +20415,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20466,7 +20472,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20523,7 +20529,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20585,7 +20591,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20642,7 +20648,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20699,7 +20705,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20756,7 +20762,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20818,7 +20824,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20875,7 +20881,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20938,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20989,7 +20995,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21051,7 +21057,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21108,7 +21114,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21165,7 +21171,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21227,7 +21233,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21289,7 +21295,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21351,7 +21357,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21413,7 +21419,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21475,7 +21481,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21532,7 +21538,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21594,7 +21600,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21656,7 +21662,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21713,7 +21719,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21770,7 +21776,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21832,7 +21838,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21894,7 +21900,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21956,7 +21962,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22018,7 +22024,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22086,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22142,7 +22148,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22204,7 +22210,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22266,7 +22272,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22328,7 +22334,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22390,7 +22396,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22452,7 +22458,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22520,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22576,7 +22582,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22638,7 +22644,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22695,7 +22701,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22752,7 +22758,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22814,7 +22820,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22876,7 +22882,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22933,7 +22939,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22995,7 +23001,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23057,7 +23063,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23119,7 +23125,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23187,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23243,7 +23249,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23311,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23368,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23424,7 +23430,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23481,7 +23487,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23543,7 +23549,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23611,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23667,7 +23673,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23729,7 +23735,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23791,7 +23797,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23853,7 +23859,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23915,7 +23921,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23977,7 +23983,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24034,7 +24040,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24091,7 +24097,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24159,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24216,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24272,7 +24278,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24329,7 +24335,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24397,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24453,7 +24459,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24515,7 +24521,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24572,7 +24578,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24629,7 +24635,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24686,7 +24692,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24748,7 +24754,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24805,7 +24811,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24873,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24930,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24986,7 +24992,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25043,7 +25049,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25111,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25167,7 +25173,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25229,7 +25235,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25286,7 +25292,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25348,7 +25354,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25405,7 +25411,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25462,7 +25468,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25519,7 +25525,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25576,7 +25582,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25633,7 +25639,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25695,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25757,7 +25763,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25819,7 +25825,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25881,7 +25887,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25938,7 +25944,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26000,7 +26006,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26062,7 +26068,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26124,7 +26130,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26186,7 +26192,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26248,7 +26254,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26305,7 +26311,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26362,7 +26368,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26419,7 +26425,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26481,7 +26487,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26538,7 +26544,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26595,7 +26601,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26652,7 +26658,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26714,7 +26720,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26776,7 +26782,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26838,7 +26844,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26895,7 +26901,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26963,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27020,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27077,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27134,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27190,7 +27196,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27252,7 +27258,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27309,7 +27315,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27371,7 +27377,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27433,7 +27439,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27495,7 +27501,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27552,7 +27558,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27609,7 +27615,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27666,7 +27672,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27728,7 +27734,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27790,7 +27796,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27847,7 +27853,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27909,7 +27915,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27971,7 +27977,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28033,7 +28039,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28090,7 +28096,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28152,7 +28158,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28209,7 +28215,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28271,7 +28277,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28333,7 +28339,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28395,7 +28401,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28457,7 +28463,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28519,7 +28525,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28581,7 +28587,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28643,7 +28649,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28705,7 +28711,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28762,7 +28768,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28824,7 +28830,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28886,7 +28892,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28943,7 +28949,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29005,7 +29011,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29067,7 +29073,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29124,7 +29130,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29181,7 +29187,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29243,7 +29249,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29300,7 +29306,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29357,7 +29363,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29419,7 +29425,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29481,7 +29487,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29543,7 +29549,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29605,7 +29611,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29667,7 +29673,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29729,7 +29735,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29797,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29854,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29910,7 +29916,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29967,7 +29973,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30029,7 +30035,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30086,7 +30092,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30148,7 +30154,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30210,7 +30216,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30267,7 +30273,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30329,7 +30335,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30391,7 +30397,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30453,7 +30459,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30510,7 +30516,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30567,7 +30573,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30624,7 +30630,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30681,7 +30687,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30738,7 +30744,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30795,7 +30801,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30852,7 +30858,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30909,7 +30915,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30966,7 +30972,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31023,7 +31029,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31080,7 +31086,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31142,7 +31148,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31204,7 +31210,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31261,7 +31267,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31318,7 +31324,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31375,7 +31381,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31432,7 +31438,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31489,7 +31495,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31546,7 +31552,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31603,7 +31609,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31665,7 +31671,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31727,7 +31733,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31784,7 +31790,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31846,7 +31852,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31903,7 +31909,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31965,7 +31971,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32022,7 +32028,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32079,7 +32085,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32136,7 +32142,7 @@
         <v>45181</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -640,27 +640,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 47667-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 47667-2020.xlsx", "A 47667-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 47667-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 47667-2020.png", "A 47667-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 47667-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 47667-2020.docx", "A 47667-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 47667-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 47667-2020.docx", "A 47667-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 47667-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 47667-2020.docx", "A 47667-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 47667-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 47667-2020.docx", "A 47667-2020")</f>
         <v/>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -734,27 +734,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 39627-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 39627-2023.xlsx", "A 39627-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 39627-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 39627-2023.png", "A 39627-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 39627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 39627-2023.docx", "A 39627-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 39627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 39627-2023.docx", "A 39627-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 39627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 39627-2023.docx", "A 39627-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 39627-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 39627-2023.docx", "A 39627-2023")</f>
         <v/>
       </c>
     </row>
@@ -768,7 +768,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,27 +831,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 46698-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 46698-2021.xlsx", "A 46698-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 46698-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 46698-2021.png", "A 46698-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 46698-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 46698-2021.docx", "A 46698-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 46698-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 46698-2021.docx", "A 46698-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 46698-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 46698-2021.docx", "A 46698-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 46698-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 46698-2021.docx", "A 46698-2021")</f>
         <v/>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>45036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,27 +925,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 17619-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 17619-2023.xlsx", "A 17619-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 17619-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 17619-2023.png", "A 17619-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 17619-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 17619-2023.docx", "A 17619-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 17619-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 17619-2023.docx", "A 17619-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 17619-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 17619-2023.docx", "A 17619-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 17619-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 17619-2023.docx", "A 17619-2023")</f>
         <v/>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,27 +1011,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 656-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 656-2022.xlsx", "A 656-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 656-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 656-2022.png", "A 656-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 656-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 656-2022.docx", "A 656-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 656-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 656-2022.docx", "A 656-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 656-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 656-2022.docx", "A 656-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 656-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 656-2022.docx", "A 656-2022")</f>
         <v/>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,27 +1096,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 59035-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 59035-2018.xlsx", "A 59035-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 59035-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 59035-2018.png", "A 59035-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 59035-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 59035-2018.docx", "A 59035-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 59035-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 59035-2018.docx", "A 59035-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 59035-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 59035-2018.docx", "A 59035-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 59035-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 59035-2018.docx", "A 59035-2018")</f>
         <v/>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,27 +1186,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 51021-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 51021-2019.xlsx", "A 51021-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 51021-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 51021-2019.png", "A 51021-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 51021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 51021-2019.docx", "A 51021-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 51021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 51021-2019.docx", "A 51021-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 51021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 51021-2019.docx", "A 51021-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 51021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 51021-2019.docx", "A 51021-2019")</f>
         <v/>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,27 +1276,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 47721-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 47721-2020.xlsx", "A 47721-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 47721-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 47721-2020.png", "A 47721-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 47721-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 47721-2020.docx", "A 47721-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 47721-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 47721-2020.docx", "A 47721-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 47721-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 47721-2020.docx", "A 47721-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 47721-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 47721-2020.docx", "A 47721-2020")</f>
         <v/>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,27 +1366,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 45073-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 45073-2021.xlsx", "A 45073-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 45073-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 45073-2021.png", "A 45073-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 45073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 45073-2021.docx", "A 45073-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 45073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 45073-2021.docx", "A 45073-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 45073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 45073-2021.docx", "A 45073-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 45073-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 45073-2021.docx", "A 45073-2021")</f>
         <v/>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,27 +1451,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 6986-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 6986-2022.xlsx", "A 6986-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 6986-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 6986-2022.png", "A 6986-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 6986-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 6986-2022.docx", "A 6986-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 6986-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 6986-2022.docx", "A 6986-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 6986-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 6986-2022.docx", "A 6986-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 6986-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 6986-2022.docx", "A 6986-2022")</f>
         <v/>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1541,27 +1541,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 56083-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/artfynd/A 56083-2022.xlsx", "A 56083-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 56083-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/kartor/A 56083-2022.png", "A 56083-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 56083-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomål/A 56083-2022.docx", "A 56083-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 56083-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/klagomålsmail/A 56083-2022.docx", "A 56083-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 56083-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsyn/A 56083-2022.docx", "A 56083-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 56083-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAGFORS/tillsynsmail/A 56083-2022.docx", "A 56083-2022")</f>
         <v/>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17279,7 +17279,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25944,7 +25944,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26720,7 +26720,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45181</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17279,7 +17279,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25944,7 +25944,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26720,7 +26720,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45181</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>43320</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43341</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43343</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43356</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>43381</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>43388</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43404</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43416</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43418</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43421</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43426</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43438</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43479</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>43481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43486</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43487</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43488</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43489</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43490</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43500</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>43508</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43523</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43534</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43541</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43558</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43560</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43565</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43585</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43598</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43608</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43612</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43619</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43626</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43630</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43633</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43649</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43651</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43654</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43664</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43693</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43697</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43710</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>43725</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43727</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43732</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>43738</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>43740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43752</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43753</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43775</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43781</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43801</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>43802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43804</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43808</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43816</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>43817</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>43829</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>43845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43850</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43851</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43853</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43854</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43857</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>43865</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43869</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43871</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43873</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43878</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>43886</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>43887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>43888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>43889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43902</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43910</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43913</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43921</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43929</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>43938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43962</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43966</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43971</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>43976</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43994</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>43997</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>43999</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44000</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44011</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44012</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44018</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44022</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44067</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44068</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>44070</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>44083</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44085</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44101</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44103</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44109</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44113</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44119</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44123</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44130</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44132</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44137</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44144</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44145</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44153</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44167</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44175</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44183</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44207</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44214</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>44216</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44221</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44225</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44241</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44245</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44252</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44256</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44273</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44284</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44297</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44308</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44316</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44323</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44325</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44337</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44357</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44364</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44370</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44376</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44393</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44400</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44405</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44412</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44417</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44421</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44424</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17279,7 +17279,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44425</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>44426</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44432</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44434</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44435</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44438</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>44439</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>44445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44449</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>44452</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>44463</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44465</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44469</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44479</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44488</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44491</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44498</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44499</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44502</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44510</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>44515</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>44516</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44517</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44526</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>44532</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44537</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44538</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44545</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>44547</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44550</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44558</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44564</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>44566</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44579</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>44582</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44587</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44594</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44603</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44606</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44622</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>44634</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44638</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44649</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44663</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44683</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>44685</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44687</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>44694</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44697</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44706</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44712</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>44719</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44731</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>44754</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44756</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44757</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44762</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44763</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44770</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44790</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44799</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44802</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44803</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>44805</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44810</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44812</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44824</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44832</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44834</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44848</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44851</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44858</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44865</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44869</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44874</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44879</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44883</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44890</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>44894</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44896</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44901</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44903</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44908</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         <v>44915</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25944,7 +25944,7 @@
         <v>44924</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44929</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44930</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44937</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44938</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>44941</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44946</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44949</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44950</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26720,7 +26720,7 @@
         <v>44951</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>44953</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>44958</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44959</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44965</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27258,7 +27258,7 @@
         <v>44966</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44980</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44984</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44991</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>44994</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44998</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>45016</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45019</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45020</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>45028</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45030</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45033</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45035</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45036</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>45041</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>45044</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45050</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>45051</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>45055</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45057</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45062</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>45069</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>45070</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>45071</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45075</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45076</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>45077</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>45078</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>45079</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>45084</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45085</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30092,7 +30092,7 @@
         <v>45090</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45091</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45093</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45099</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>45106</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>45107</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>45110</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>45112</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>45117</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45118</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45121</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45132</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31324,7 +31324,7 @@
         <v>45145</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31381,7 +31381,7 @@
         <v>45152</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45154</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>45155</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45161</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45162</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45163</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>45166</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45169</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32028,7 +32028,7 @@
         <v>45170</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         <v>45174</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45181</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45188</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43320</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43341</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43343</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43364</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43405</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43418</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43421</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43426</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43426</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43431</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>43446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43479</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43486</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43488</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43489</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43490</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43500</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43508</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43516</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>43523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>43534</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43541</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43544</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43546</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43549</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43558</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43560</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43565</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43578</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43585</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43598</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43598</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43608</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43612</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43619</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43626</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43630</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43633</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43654</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43654</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>43664</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43689</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43693</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43697</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43705</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43727</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43738</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43753</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43753</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43761</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43762</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>43770</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>43775</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>43781</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>43795</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43801</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43802</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43804</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>43808</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43816</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43837</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43845</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43850</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43851</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43854</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43857</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43865</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>43869</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>43869</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>43871</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>43873</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>43875</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>43878</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>43882</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>43886</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>43887</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>43887</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>43888</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>43889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>43902</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>43910</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43910</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43913</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43913</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10750,7 +10750,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>43921</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>43927</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>43929</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>43938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>43944</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>43944</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>43962</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43962</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>43965</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43966</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43971</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43994</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>43997</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43999</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44000</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44011</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44012</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44012</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44018</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44022</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44047</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44047</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44067</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44068</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44070</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44083</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44085</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>44085</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44098</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>44098</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44101</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44103</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44109</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44110</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44110</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44113</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44119</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44119</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44123</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44130</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44132</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44137</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44144</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44145</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44153</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44167</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>44167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44175</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44175</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44183</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>44207</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44214</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>44214</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44216</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44217</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>44221</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44221</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>44225</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44241</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>44241</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44252</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44256</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44257</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>44273</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>44284</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>44297</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44308</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44316</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44323</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44323</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44325</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>44337</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44343</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44357</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44364</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44364</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>44370</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44376</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44393</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44400</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>44405</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>44412</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44417</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>44417</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>44421</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>44424</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44424</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>44425</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44426</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17550,7 +17550,7 @@
         <v>44432</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>44434</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>44434</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>44435</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44438</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44439</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44439</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44449</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44449</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44452</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44452</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44463</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44465</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44465</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44469</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44479</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44488</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44491</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>44499</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44502</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44510</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44515</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44517</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>44526</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44526</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44532</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>44537</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44538</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44545</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44547</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44550</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>44558</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>44564</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>44566</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>44579</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>44582</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44587</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>44594</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>44603</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44606</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44622</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44628</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44634</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44635</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>44638</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>44649</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44663</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44678</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44683</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44685</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44687</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>44694</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>44697</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>44700</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44706</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44711</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44712</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44731</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44754</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44755</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44756</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>44757</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44763</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44770</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44790</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>44799</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44802</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44803</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>44805</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>44810</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23944,7 +23944,7 @@
         <v>44812</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44825</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44830</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44832</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>44834</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44848</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>44851</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         <v>44858</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24777,7 +24777,7 @@
         <v>44865</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>44869</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44874</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44879</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44883</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25320,7 +25320,7 @@
         <v>44890</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44896</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44901</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>44903</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>44904</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44908</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44915</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26029,7 +26029,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44924</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>44929</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44930</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>44937</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>44938</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>44941</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>44946</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44950</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>44951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>44953</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>44958</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>44959</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44965</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44980</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>44984</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>44991</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>44994</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>44998</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45016</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45019</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45020</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>45028</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45030</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>45033</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>45035</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45036</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28796,7 +28796,7 @@
         <v>45037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45041</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>45044</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29096,7 +29096,7 @@
         <v>45051</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45055</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45057</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>45062</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>45069</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>45070</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>45071</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45075</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45076</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29758,7 +29758,7 @@
         <v>45077</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45078</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45079</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45085</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45090</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30301,7 +30301,7 @@
         <v>45091</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30358,7 +30358,7 @@
         <v>45093</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31057,7 +31057,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>45112</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>45117</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45118</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>45121</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>45132</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>45145</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>45155</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>45161</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31818,7 +31818,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31875,7 +31875,7 @@
         <v>45163</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45166</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>45170</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>45174</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>45181</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44532</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44603</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43341</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43343</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43356</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43405</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43421</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43426</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43431</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43431</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43486</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43488</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43490</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43500</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43508</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43516</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43516</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43523</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43534</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43541</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43544</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43560</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43591</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43598</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43598</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43608</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43608</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43612</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43626</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43630</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43633</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43649</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43654</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43654</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43664</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43689</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43705</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43727</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43752</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>43753</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43753</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43761</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43761</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43762</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43770</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43775</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43781</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43802</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43804</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43808</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43837</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43837</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43845</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43850</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43851</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43854</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43869</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43869</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43886</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43887</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43888</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>43910</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43913</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43913</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43921</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43927</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43929</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43938</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43944</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43944</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43962</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43962</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43965</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43971</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43978</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43994</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43997</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43999</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44000</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44000</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44011</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44012</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44012</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44018</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44022</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44047</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44047</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44067</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44068</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44083</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>44085</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>44085</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44098</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44098</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44101</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44109</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44109</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44110</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44110</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44113</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>44119</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>44119</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44123</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44132</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44137</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44144</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44145</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44153</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44175</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44175</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44183</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44207</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44214</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44214</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44217</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44221</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44221</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44225</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44241</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44241</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44252</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44256</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44257</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44273</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44284</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44297</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44316</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44323</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44323</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44325</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44337</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44337</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44343</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44357</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44364</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44364</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44370</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44376</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44393</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44400</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44405</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44412</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44417</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44417</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44421</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44424</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44424</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44425</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44426</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44432</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44434</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44434</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44438</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>44439</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44439</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>44449</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>44449</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44452</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44463</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44465</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44465</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44469</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44479</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44491</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44491</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>44498</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44499</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44502</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44515</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44516</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44517</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>44526</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>44526</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44537</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44538</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44545</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44547</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44550</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44558</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44564</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>44566</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44579</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44582</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44587</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44594</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44603</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44606</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44622</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44628</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44634</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44635</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44638</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44649</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44663</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44678</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44683</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44685</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44687</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44694</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44697</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44700</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44706</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44711</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44712</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44731</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44754</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44755</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44756</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44757</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44763</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44770</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44790</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44799</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44802</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44803</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44805</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44810</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44812</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44825</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44830</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44832</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44834</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44848</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44851</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44858</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44865</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44869</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44874</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44879</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44883</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44890</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>44896</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>44901</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44903</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44904</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44908</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44915</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44924</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44929</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>44930</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44937</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44938</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44941</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44946</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44950</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44953</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44958</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44959</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44965</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>44980</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44984</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44991</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44994</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44998</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45016</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45019</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45020</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45028</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45030</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45033</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45035</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45036</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45041</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45044</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45051</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45055</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45057</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>45062</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45069</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>45070</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>45071</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>45075</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>45076</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>45077</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45078</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45079</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45085</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45090</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45091</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>45093</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45112</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>45117</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45118</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45121</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>45132</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45145</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>45155</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45161</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45163</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45166</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32084,7 +32084,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>45170</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>45174</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45181</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>45196</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45197</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32434,14 +32434,14 @@
     <row r="533" ht="15" customHeight="1">
       <c r="A533" t="inlineStr">
         <is>
-          <t>A 47027-2023</t>
+          <t>A 46922-2023</t>
         </is>
       </c>
       <c r="B533" s="1" t="n">
         <v>45201</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         </is>
       </c>
       <c r="G533" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H533" t="n">
         <v>0</v>
@@ -32491,14 +32491,14 @@
     <row r="534" ht="15" customHeight="1">
       <c r="A534" t="inlineStr">
         <is>
-          <t>A 46922-2023</t>
+          <t>A 47019-2023</t>
         </is>
       </c>
       <c r="B534" s="1" t="n">
         <v>45201</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         </is>
       </c>
       <c r="G534" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H534" t="n">
         <v>0</v>
@@ -32548,14 +32548,14 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>A 47019-2023</t>
+          <t>A 47027-2023</t>
         </is>
       </c>
       <c r="B535" s="1" t="n">
         <v>45201</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         </is>
       </c>
       <c r="G535" t="n">
-        <v>2.2</v>
+        <v>7.7</v>
       </c>
       <c r="H535" t="n">
         <v>0</v>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y535"/>
+  <dimension ref="A1:Y539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44532</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44603</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43341</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43343</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43356</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43405</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43421</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43426</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43431</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43431</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43486</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43488</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43490</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43500</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43508</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43516</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43516</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43523</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43534</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43541</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43544</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43560</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43591</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43598</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43598</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43608</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43608</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43612</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43626</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43630</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43633</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43649</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43654</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43654</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43664</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43689</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43705</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43727</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43752</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>43753</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43753</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43761</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43761</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43762</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43770</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43775</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43781</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43802</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43804</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43808</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43837</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43837</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43845</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43850</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43851</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43854</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43869</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43869</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43886</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43887</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43888</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>43910</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43913</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43913</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43921</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43927</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43929</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43938</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43944</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43944</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43962</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43962</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43965</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43971</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43978</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43994</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43997</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43999</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44000</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44000</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44011</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44012</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44012</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44018</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44022</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44047</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44047</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44067</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44068</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44083</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>44085</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>44085</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44098</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44098</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44101</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44109</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44109</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44110</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44110</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44113</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>44119</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>44119</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44123</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44132</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44137</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44144</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44145</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44153</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44175</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44175</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44183</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44207</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44214</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44214</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44217</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44221</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44221</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44225</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44241</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44241</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44252</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44256</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44257</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44273</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44284</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44297</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44316</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44323</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44323</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44325</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44337</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44337</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44343</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44357</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44364</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44364</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44370</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44376</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44393</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44400</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44405</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44412</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44417</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44417</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44421</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44424</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44424</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44425</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44426</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44432</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44434</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44434</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44438</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>44439</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44439</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>44449</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>44449</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44452</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44463</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44465</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44465</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44469</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44479</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44491</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44491</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>44498</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44499</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44502</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44515</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44516</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44517</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>44526</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>44526</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44537</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44538</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44545</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44547</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44550</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44558</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44564</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>44566</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44579</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44582</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44587</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44594</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44603</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44606</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44622</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44628</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44634</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44635</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44638</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44649</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44663</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44678</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44683</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44685</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44687</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44694</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44697</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44700</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44706</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44711</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44712</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44731</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44754</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44755</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44756</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44757</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44763</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44770</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44790</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44799</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44802</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44803</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44805</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44810</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44812</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44825</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44830</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44832</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44834</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44848</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44851</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44858</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44865</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44869</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44874</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44879</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44883</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44890</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>44896</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>44901</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44903</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44904</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44908</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44915</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44924</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44929</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>44930</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44937</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44938</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44941</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44946</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44950</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44953</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44958</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44959</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44965</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>44980</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44984</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44991</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44994</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44998</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45016</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45019</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45020</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45028</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45030</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45033</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45035</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45036</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45041</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45044</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45051</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45055</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45057</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>45062</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45069</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>45070</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>45071</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>45075</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>45076</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>45077</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45078</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45079</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45085</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45090</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45091</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>45093</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45112</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>45117</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45118</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45121</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>45132</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45145</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>45155</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45161</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45163</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45166</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32084,7 +32084,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>45170</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>45174</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45181</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>45196</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45197</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>45201</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>45201</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32545,7 +32545,7 @@
       </c>
       <c r="R534" s="2" t="inlineStr"/>
     </row>
-    <row r="535">
+    <row r="535" ht="15" customHeight="1">
       <c r="A535" t="inlineStr">
         <is>
           <t>A 47027-2023</t>
@@ -32555,7 +32555,7 @@
         <v>45201</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32601,6 +32601,254 @@
         <v>0</v>
       </c>
       <c r="R535" s="2" t="inlineStr"/>
+    </row>
+    <row r="536" ht="15" customHeight="1">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>A 47443-2023</t>
+        </is>
+      </c>
+      <c r="B536" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C536" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>HAGFORS</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>6</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N536" t="n">
+        <v>0</v>
+      </c>
+      <c r="O536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R536" s="2" t="inlineStr"/>
+    </row>
+    <row r="537" ht="15" customHeight="1">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>A 47439-2023</t>
+        </is>
+      </c>
+      <c r="B537" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C537" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>HAGFORS</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0</v>
+      </c>
+      <c r="K537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N537" t="n">
+        <v>0</v>
+      </c>
+      <c r="O537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R537" s="2" t="inlineStr"/>
+    </row>
+    <row r="538" ht="15" customHeight="1">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>A 47660-2023</t>
+        </is>
+      </c>
+      <c r="B538" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C538" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>HAGFORS</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G538" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N538" t="n">
+        <v>0</v>
+      </c>
+      <c r="O538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R538" s="2" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>A 47578-2023</t>
+        </is>
+      </c>
+      <c r="B539" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C539" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>HAGFORS</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G539" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N539" t="n">
+        <v>0</v>
+      </c>
+      <c r="O539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R539" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44532</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44603</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43341</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43343</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43356</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43405</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43421</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43426</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43431</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43431</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43486</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43488</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43490</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43500</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43508</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43516</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43516</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43523</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43534</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43541</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43544</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43560</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43591</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43598</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43598</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43608</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43608</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43612</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43626</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43630</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43633</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43649</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43654</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43654</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43664</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43689</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43705</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43727</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43752</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>43753</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43753</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43761</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43761</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43762</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43770</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43775</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43781</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43802</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43804</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43808</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43837</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43837</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43845</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43850</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43851</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43854</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43869</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43869</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43886</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43887</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43888</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>43910</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43913</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43913</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43921</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43927</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43929</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43938</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43944</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43944</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43962</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43962</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43965</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43971</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43978</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43994</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43997</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43999</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44000</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44000</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44011</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44012</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44012</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44018</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44022</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44047</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44047</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44067</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44068</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44083</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>44085</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>44085</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44098</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44098</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44101</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44109</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44109</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44110</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44110</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44113</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>44119</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>44119</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44123</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44132</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44137</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44144</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44145</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44153</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44175</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44175</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44183</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44207</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44214</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44214</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44217</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44221</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44221</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44225</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44241</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44241</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44252</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44256</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44257</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44273</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44284</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44297</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44316</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44323</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44323</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44325</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44337</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44337</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44343</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44357</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44364</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44364</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44370</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44376</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44393</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44400</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44405</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44412</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44417</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44417</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44421</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44424</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44424</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44425</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44426</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44432</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44434</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44434</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44438</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>44439</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44439</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>44449</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>44449</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44452</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44463</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44465</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44465</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44469</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44479</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44491</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44491</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>44498</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44499</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44502</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44515</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44516</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44517</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>44526</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>44526</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44537</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44538</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44545</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44547</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44550</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44558</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44564</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>44566</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44579</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44582</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44587</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44594</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44603</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44606</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44622</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44628</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44634</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44635</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44638</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44649</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44663</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44678</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44683</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44685</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44687</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44694</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44697</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44700</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44706</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44711</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44712</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44731</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44754</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44755</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44756</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44757</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44763</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44770</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44790</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44799</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44802</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44803</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44805</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44810</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44812</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44825</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44830</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44832</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44834</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44848</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44851</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44858</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44865</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44869</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44874</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44879</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44883</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44890</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>44896</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>44901</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44903</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44904</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44908</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44915</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44924</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44929</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>44930</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44937</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44938</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44941</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44946</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44950</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44953</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44958</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44959</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44965</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>44980</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44984</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44991</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44994</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44998</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45016</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45019</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45020</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45028</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45030</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45033</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45035</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45036</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45041</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45044</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45051</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45055</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45057</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>45062</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45069</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>45070</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>45071</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>45075</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>45076</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>45077</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45078</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45079</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45085</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45090</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45091</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>45093</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45112</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>45117</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45118</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45121</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>45132</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45145</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>45155</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45161</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45163</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45166</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32084,7 +32084,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>45170</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>45174</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45181</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>45196</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45197</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>45201</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>45201</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>45201</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32612,7 +32612,7 @@
         <v>45202</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32674,7 +32674,7 @@
         <v>45202</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32736,7 +32736,7 @@
         <v>45203</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32798,7 +32798,7 @@
         <v>45203</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>

--- a/Översikt HAGFORS.xlsx
+++ b/Översikt HAGFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44096</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>45167</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>44445</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>45036</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>43411</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>43739</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44096</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>44438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44532</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44603</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43341</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43343</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43356</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43364</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43405</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43410</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43418</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>43421</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>43426</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>43427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43427</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43431</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43431</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43486</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43488</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43490</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43500</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43508</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43516</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43516</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43523</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43534</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43541</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43544</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43549</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43560</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43565</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43565</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43572</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43578</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43585</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43591</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43591</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43598</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43598</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43608</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43608</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43612</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43626</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43630</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43633</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43649</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43654</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43654</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43664</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43689</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43693</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43705</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43710</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43725</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43727</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43738</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43738</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43752</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43753</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>43753</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>43753</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43761</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43761</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>43762</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43770</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43775</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43781</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43795</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43795</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43795</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43795</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43801</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43802</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43804</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43808</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43816</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43817</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>43837</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43837</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43845</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43850</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43851</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43853</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43854</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43857</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43865</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43869</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>43869</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>43871</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>43873</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>43875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43882</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43886</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43887</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43887</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43888</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>43902</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>43910</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43913</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43913</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43921</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43927</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43929</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43938</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43944</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43944</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43962</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43962</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43965</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43966</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43966</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43971</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43978</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43994</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43997</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43999</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44000</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44000</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44011</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44012</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12402,7 +12402,7 @@
         <v>44012</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44018</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44022</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44047</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44047</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44047</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44067</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44068</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44070</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44083</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>44085</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>44085</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44098</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44098</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44101</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44103</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44103</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44109</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44109</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44110</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44110</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44110</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44113</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>44119</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>44119</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44123</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44130</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>44132</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>44137</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>44144</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44145</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44153</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44167</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44167</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44167</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44175</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44175</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44175</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44175</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44183</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44207</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44214</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44214</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44216</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44217</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44221</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44221</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15575,7 +15575,7 @@
         <v>44225</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15632,7 +15632,7 @@
         <v>44241</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44241</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>44241</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44245</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44252</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44256</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44257</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44273</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44284</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44297</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44308</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44316</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44323</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44323</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44325</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44337</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44337</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44343</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44357</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44364</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>44364</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44370</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44376</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44393</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44400</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44405</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44412</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44417</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44417</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44421</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44424</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44424</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44425</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44426</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44432</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44434</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44434</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44435</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44438</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>44439</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44439</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44445</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>44449</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>44449</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44452</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>44463</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44465</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44465</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>44469</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44469</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44479</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44488</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44491</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44491</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>44498</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44499</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44502</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>44510</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44515</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44516</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44517</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>44526</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>44526</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>44537</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>44537</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44538</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>44538</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44545</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44545</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>44545</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>44547</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>44550</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>44550</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44558</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>44564</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>44566</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44566</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>44566</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>44566</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44579</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44582</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44587</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44594</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44594</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44603</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44603</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44606</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44606</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44622</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44628</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44634</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44635</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>44638</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>44638</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44649</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44649</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44649</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44649</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44663</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>44678</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44683</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44683</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44683</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44685</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44687</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44687</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44694</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44694</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44697</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44700</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44700</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44706</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>44706</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44706</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>44711</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44712</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44712</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44719</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44731</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44754</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44755</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44756</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44757</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44757</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>44762</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44762</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44763</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44770</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44790</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44799</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44802</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44803</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44805</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44805</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44805</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44810</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44810</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44812</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44824</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44825</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44830</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44832</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>44834</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44848</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44851</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44858</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44858</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44865</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44869</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>44874</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>44879</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44883</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>44883</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44890</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>44896</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>44901</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>44903</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44903</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44903</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>44904</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44904</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44908</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>44915</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>44924</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44924</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44929</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>44930</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44937</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44938</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44938</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44941</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44946</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44949</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44950</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44950</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44950</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44951</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>44951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44953</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44958</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44959</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44959</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44965</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27428,7 +27428,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>44980</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44984</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44984</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44991</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44991</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44994</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44994</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>44998</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45016</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45019</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45020</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45028</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>45028</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45030</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45033</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45033</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45035</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45035</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>45036</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45036</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>45037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45041</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45041</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45044</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45050</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45051</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45055</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45057</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>45062</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>45062</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45069</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>45070</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>45071</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29600,7 +29600,7 @@
         <v>45071</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>45075</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>45076</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>45077</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45078</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45079</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>45084</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45085</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45085</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>45090</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45090</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45091</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>45093</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30629,7 +30629,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30686,7 +30686,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>45110</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>45112</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>45112</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>45112</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>45117</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45118</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45121</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>45132</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45145</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>45152</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>45152</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>45154</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45154</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>45155</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>45161</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45162</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45163</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45166</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>45169</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32084,7 +32084,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>45170</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32198,7 +32198,7 @@
         <v>45174</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45181</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>45196</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45197</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>45201</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>45201</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>45201</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32612,7 +32612,7 @@
         <v>45202</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32674,7 +32674,7 @@
         <v>45202</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32736,7 +32736,7 @@
         <v>45203</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32798,7 +32798,7 @@
         <v>45203</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
